--- a/medicine/Médecine vétérinaire/Myeloencéphalopathie_équine_dégénérative/Myeloencéphalopathie_équine_dégénérative.xlsx
+++ b/medicine/Médecine vétérinaire/Myeloencéphalopathie_équine_dégénérative/Myeloencéphalopathie_équine_dégénérative.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Myeloenc%C3%A9phalopathie_%C3%A9quine_d%C3%A9g%C3%A9n%C3%A9rative</t>
+          <t>Myeloencéphalopathie_équine_dégénérative</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La myeloencéphalopathie équine dégénérative est une maladie génétique du cheval. D'origine neurologique, elle touche les jeunes animaux[1].
-Elle fait l'objet d'études au moins depuis 1977[2]. Elle se traduit par une ataxie[2] et est évolutive[3]. Des compléments de vitamine E ont été testés chez deux animaux[4].
-Elle touche notamment la race Lusitanien[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La myeloencéphalopathie équine dégénérative est une maladie génétique du cheval. D'origine neurologique, elle touche les jeunes animaux.
+Elle fait l'objet d'études au moins depuis 1977. Elle se traduit par une ataxie et est évolutive. Des compléments de vitamine E ont été testés chez deux animaux.
+Elle touche notamment la race Lusitanien.
 </t>
         </is>
       </c>
